--- a/medicine/Pharmacie/MBDB/MBDB.xlsx
+++ b/medicine/Pharmacie/MBDB/MBDB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La MBDB (2-méthylamino-1-(3,4-méthylènedioxyphényl)butane) est une substance psychotrope aux propriétés stimulantes et hallucinogènes de la famille des phényléthylamines.
@@ -513,10 +525,12 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses effets sont proches de la MDMA, moins rapides et moins intenses[2].
-Selon son créateur, les effets hallucinogènes de cette molécule n'induisent pas d'hallucinations et se limitent à un effet entactogène[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses effets sont proches de la MDMA, moins rapides et moins intenses.
+Selon son créateur, les effets hallucinogènes de cette molécule n'induisent pas d'hallucinations et se limitent à un effet entactogène.
 </t>
         </is>
       </c>
@@ -545,13 +559,12 @@
           <t>Usage détourné et récréatif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les usagers le rencontrent souvent involontairement sous la forme d'un comprimé généralement vendu comme de la MDMA.
 Son mode consommation le plus courant est par voie orale.
-Effets et conséquences
-Les effets durent 4 à 6 heures pour une dose de 120 à 150 mg[2].
-La MBDB étant un produit psychotrope, il se peut que les effets ressentis ne soient pas agréables. On parle alors de bad trip.
 </t>
         </is>
       </c>
@@ -577,12 +590,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Usage détourné et récréatif</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comme pour la plupart des « drogues de synthèse », la production s'effectue près des lieux de consommation grâce à la mise en œuvre de laboratoires clandestins mobiles.
+          <t>Effets et conséquences</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets durent 4 à 6 heures pour une dose de 120 à 150 mg.
+La MBDB étant un produit psychotrope, il se peut que les effets ressentis ne soient pas agréables. On parle alors de bad trip.
 </t>
         </is>
       </c>
@@ -608,12 +628,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme pour la plupart des « drogues de synthèse », la production s'effectue près des lieux de consommation grâce à la mise en œuvre de laboratoires clandestins mobiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MBDB</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MBDB</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Législation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La MBDB a été en France classée comme stupéfiant en 1996[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La MBDB a été en France classée comme stupéfiant en 1996.
 </t>
         </is>
       </c>
